--- a/app/shiny/templates/template_order_1211.xlsx
+++ b/app/shiny/templates/template_order_1211.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ppe_allocatoR\app\shiny\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahu.PH\Documents\GitHub\ppe_allocatoR\app\shiny\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85066CA-21FE-42E2-A645-3BA6E5A2333A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E1F4A9-478F-4B1C-BBA2-D85F2C0A56FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27180" windowHeight="14475" xr2:uid="{6E043744-41BF-4309-8E15-A193B86EE1CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E043744-41BF-4309-8E15-A193B86EE1CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Elections" sheetId="2" r:id="rId1"/>
@@ -464,19 +464,19 @@
   <dimension ref="A10:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="49.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,14 +487,14 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -505,14 +505,14 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -526,12 +526,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009BC94ECF313B5246868E87E2CCF9F2B6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7068939f287d0aae6c00b0eaae34d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="56db134c-4247-493d-bb73-9f73b9a5dc87" xmlns:ns4="4ad208af-66fe-4634-859b-5e98ffd8fb32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f53fc25a8bec057ac1c909ff733d8cc" ns3:_="" ns4:_="">
     <xsd:import namespace="56db134c-4247-493d-bb73-9f73b9a5dc87"/>
@@ -734,16 +743,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF527F85-80F7-456C-8479-F80AEA6BE54F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9EEBB62-783A-409C-8343-E456CF454898}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="56db134c-4247-493d-bb73-9f73b9a5dc87"/>
@@ -760,7 +768,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A709E95-7685-4A29-83B9-D8A0640CE435}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -777,12 +785,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF527F85-80F7-456C-8479-F80AEA6BE54F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/app/shiny/templates/template_order_1211.xlsx
+++ b/app/shiny/templates/template_order_1211.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahu.PH\Documents\GitHub\ppe_allocatoR\app\shiny\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E1F4A9-478F-4B1C-BBA2-D85F2C0A56FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4019F505-5265-4BC9-AD3C-B7BD967A074C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E043744-41BF-4309-8E15-A193B86EE1CB}"/>
+    <workbookView xWindow="-5040" yWindow="2625" windowWidth="9600" windowHeight="4905" xr2:uid="{6E043744-41BF-4309-8E15-A193B86EE1CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Elections" sheetId="2" r:id="rId1"/>
@@ -162,6 +162,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2949575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>187325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>29869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C906A93-E1FB-4606-8E2C-AF89FC13ADE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4454525" y="15875"/>
+          <a:ext cx="2019300" cy="1280819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,7 +519,7 @@
   <dimension ref="A10:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,25 +577,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009BC94ECF313B5246868E87E2CCF9F2B6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7068939f287d0aae6c00b0eaae34d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="56db134c-4247-493d-bb73-9f73b9a5dc87" xmlns:ns4="4ad208af-66fe-4634-859b-5e98ffd8fb32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f53fc25a8bec057ac1c909ff733d8cc" ns3:_="" ns4:_="">
     <xsd:import namespace="56db134c-4247-493d-bb73-9f73b9a5dc87"/>
@@ -743,32 +784,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF527F85-80F7-456C-8479-F80AEA6BE54F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9EEBB62-783A-409C-8343-E456CF454898}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="56db134c-4247-493d-bb73-9f73b9a5dc87"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4ad208af-66fe-4634-859b-5e98ffd8fb32"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A709E95-7685-4A29-83B9-D8A0640CE435}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -785,4 +816,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9EEBB62-783A-409C-8343-E456CF454898}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="56db134c-4247-493d-bb73-9f73b9a5dc87"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4ad208af-66fe-4634-859b-5e98ffd8fb32"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF527F85-80F7-456C-8479-F80AEA6BE54F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/app/shiny/templates/template_order_1211.xlsx
+++ b/app/shiny/templates/template_order_1211.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahu.PH\Documents\GitHub\ppe_allocatoR\app\shiny\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4019F505-5265-4BC9-AD3C-B7BD967A074C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0953BE-C30E-46C5-8AA9-054378CA49AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5040" yWindow="2625" windowWidth="9600" windowHeight="4905" xr2:uid="{6E043744-41BF-4309-8E15-A193B86EE1CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E043744-41BF-4309-8E15-A193B86EE1CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Elections" sheetId="2" r:id="rId1"/>
@@ -78,12 +78,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="1"/>
         <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -105,10 +105,30 @@
         <color theme="4"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -117,7 +137,9 @@
       <top style="thin">
         <color theme="4"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -128,7 +150,9 @@
       <top style="thin">
         <color theme="4"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -141,12 +165,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,22 +193,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2949575</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>674762</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>29869</xdr:rowOff>
+      <xdr:rowOff>36143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C906A93-E1FB-4606-8E2C-AF89FC13ADE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17647182-8DA3-4046-9F2E-FF6DEE4F0C7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -206,8 +230,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4454525" y="15875"/>
-          <a:ext cx="2019300" cy="1280819"/>
+          <a:off x="3886200" y="6350"/>
+          <a:ext cx="2332112" cy="1296618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -516,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A8AC76-F2D6-410E-96C3-96B6450433F0}">
-  <dimension ref="A10:E17"/>
+  <dimension ref="A11:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,41 +555,34 @@
     <col min="5" max="5" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
@@ -574,6 +591,13 @@
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -582,6 +606,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009BC94ECF313B5246868E87E2CCF9F2B6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7068939f287d0aae6c00b0eaae34d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="56db134c-4247-493d-bb73-9f73b9a5dc87" xmlns:ns4="4ad208af-66fe-4634-859b-5e98ffd8fb32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f53fc25a8bec057ac1c909ff733d8cc" ns3:_="" ns4:_="">
     <xsd:import namespace="56db134c-4247-493d-bb73-9f73b9a5dc87"/>
@@ -784,22 +823,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF527F85-80F7-456C-8479-F80AEA6BE54F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9EEBB62-783A-409C-8343-E456CF454898}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="56db134c-4247-493d-bb73-9f73b9a5dc87"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4ad208af-66fe-4634-859b-5e98ffd8fb32"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A709E95-7685-4A29-83B9-D8A0640CE435}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -816,29 +865,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9EEBB62-783A-409C-8343-E456CF454898}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="56db134c-4247-493d-bb73-9f73b9a5dc87"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4ad208af-66fe-4634-859b-5e98ffd8fb32"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF527F85-80F7-456C-8479-F80AEA6BE54F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>